--- a/export.xlsx
+++ b/export.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,6 +678,246 @@
         <v>12414</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>33-3950749</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GAIL HINKEL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>94484153</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gail</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hinkel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>05/28/1955</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>87 Nelson Ave</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ghent</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>12075</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>33-3950813</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DEMETRIC FORNEY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>135643630</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Demetric</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Forney</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>09/03/1967</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>367 Jerome St</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>11207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>33-3950839</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ALLISON LEWIS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>132625821</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Allison</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>07/08/1969</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2759 Webster Ave</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bronx</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>10458</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33-3950858</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DOMINGO SOTO</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>131506490</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Soto</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>03/11/1956</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1047 Clay Ave</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bronx</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>10456</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>33-3951010</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>JUDY CRUZ PALMA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>114704216</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Judy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cruz Palma</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>06/18/1985</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7 Alexander Rd</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Monroe</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>10950</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export.xlsx
+++ b/export.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,433 +489,9413 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>33-3949716</t>
+          <t>33-3975001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JOHN VIELE</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>97480604</v>
+          <t>JOANNA OLGUIN GUEVARA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>617235342</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>JOANNA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Viele</t>
+          <t>OLGUIN GUEVARA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>02/26/1969</t>
+          <t>01/15/2001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1010 Washington Ave</t>
+          <t>1591 151ST AVE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Albany</t>
+          <t>SAN LEANDRO</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>12203</v>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>94578</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>33-3950283</t>
+          <t>33-3975017</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EMMA SOBOCINSKI</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>53846773</v>
+          <t>RUBEN BALBUENA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>616253942</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>RUBEN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sobocinski</t>
+          <t>BALBUENA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10/18/1994</t>
+          <t>04/21/2001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>959 Kings Hwy</t>
+          <t>372 JONES AVE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Saugerties</t>
+          <t>OAKLAND</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>12477</v>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>94603</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>33-3950408</t>
+          <t>33-3975036</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JOYCE PARKHURST</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17600659</v>
+          <t>SAMSON MAEL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>612988666</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Joyce</t>
+          <t>SAMSON</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parkhurst</t>
+          <t>MAEL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10/08/1976</t>
+          <t>12/31/1986</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1019 W Claremont Ave</t>
+          <t>2817 PASA TIEMPO DRIVE</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schenectady</t>
+          <t>BRENTWOOD</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>12303</v>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>94513</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>33-3950493</t>
+          <t>33-3975049</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MICHELLE MOORE</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56703246</v>
+          <t>KAJUAN FOUNTAIN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>611669975</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>KAJUAN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>FOUNTAIN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>03/04/1969</t>
+          <t>07/15/1993</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>64 Grove School Rd</t>
+          <t>26555 CHISHOLM CT</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Catskill</t>
+          <t>HAYWARD</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>12414</v>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>94544</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>33-3950749</t>
+          <t>33-3975063</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAIL HINKEL</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>94484153</v>
+          <t>LABREE COUCH</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>608827426</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gail</t>
+          <t>LABREE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hinkel</t>
+          <t>COUCH</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>05/28/1955</t>
+          <t>04/17/1995</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>87 Nelson Ave</t>
+          <t>9923 GIBRALTAR RD</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ghent</t>
+          <t>OAKLAND</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>12075</v>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>94603</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>33-3950813</t>
+          <t>33-3975076</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEMETRIC FORNEY</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>135643630</v>
+          <t>KATHLEEN DECENA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>602695506</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Demetric</t>
+          <t>KATHLEEN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Forney</t>
+          <t>DECENA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09/03/1967</t>
+          <t>09/06/1993</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>367 Jerome St</t>
+          <t>241 RICHARDSON DR</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Brooklyn</t>
+          <t>VALLEJO</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>11207</v>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>94589</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>33-3950839</t>
+          <t>33-3975161</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALLISON LEWIS</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>132625821</v>
+          <t>EDMUND LEE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>547698870</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>EDMUND</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>07/08/1969</t>
+          <t>10/29/1968</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2759 Webster Ave</t>
+          <t>65 SULLIVAN DR</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bronx</t>
+          <t>MORAGA</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>10458</v>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>94556</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>33-3950858</t>
+          <t>33-3975181</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DOMINGO SOTO</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>131506490</v>
+          <t>LIN YANG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>545915092</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Soto</t>
+          <t>YANG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>03/11/1956</t>
+          <t>12/31/1960</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1047 Clay Ave</t>
+          <t>850 WEST GRAND</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bronx</t>
+          <t>OAKLAND</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>10456</v>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>94607</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>33-3951010</t>
+          <t>33-3975191</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JUDY CRUZ PALMA</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>114704216</v>
+          <t>EVELYN COBB</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>470275786</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>EVELYN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>COBB</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>05/08/1993</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>400 DERBY AVE APARTMENT 1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>OAKLAND</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>94601</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>33-3975211</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DAVID HICKS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>324604774</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DAVID</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HICKS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11/01/1961</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2247 OREGON STREET</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>BERKELEY</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>94705</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>33-3975229</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KEVIN BOYER</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>265696714</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KEVIN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BOYER</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>09/08/1971</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>6387 MISSION ST</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>DALY CITY</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>94014</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>33-3975243</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BELLANIRA MARCIAL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>161219156</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BELLANIRA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MARCIAL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12/14/1994</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>16304 SARATOGA ST</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SAN LEANDRO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>94578</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>33-3975262</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DAYNA UNDERWOOD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>614441901</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DAYNA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UNDERWOOD</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10/18/1986</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>16499 Betty Drive</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La Pine</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>97739</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>33-3975278</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>REYVAH FLAKE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>611258041</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Reyvah</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Flake</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>04/04/2001</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>52595 Day Road</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La Pine</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>97739</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>33-3975299</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ADAM RAFFEL</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>610485205</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Raffel</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>08/12/1985</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>61875 Broken Top Dr 26</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bend</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>97702</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>33-3975320</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SHAWNDRA THOMPSON</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>610321726</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Shawndra</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>11/25/1975</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>16044 Bull Bat Lane</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>La Pine</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>97739</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>33-3975338</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CRYSTAL TODD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>590522268</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TODD</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>03/02/1979</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>51852 Fordham Drive</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>La Pine</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>97739</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>33-3975356</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BRIANNE KANEHL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>589124973</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Brianne</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Kanehl</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>06/02/1980</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19994 Rock Bluff Circle</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bend</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>97702</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>33-3975383</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MICHELLE CARLSON</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>572995268</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MICHELLE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CARLSON</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>09/24/1983</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>15630 Sunrise Blvd</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>La Pine</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>97739</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>33-3975402</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KATHLEEN STEPHENS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>572552098</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KATHLEEN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>STEPHENS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>09/29/1964</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>152519 Wagon Trail Rd</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>La Pine</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>97739</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>33-3975431</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BRANDON GUTHRIE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>563598995</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BRANDON</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>GUTHRIE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>07/13/1976</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2935 NE Quiet Canyon Dr</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bend</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>97701</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>33-3975454</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ERIN GAGEFITZPATRICK</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>562775029</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Erin</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GageFitzpatrick</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>09/05/1980</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>19526 Meadowbrook Dr</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bend</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>97702</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>33-3975484</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>JAMIE BOVIK</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>559971443</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>JAMIE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BOVIK</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>04/29/1980</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>52460 Day Rd</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>La Pine</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>97739</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>33-3975506</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHRISTINA FARLEIGH</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>550937589</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CHRISTINA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>FARLEIGH</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>03/07/1986</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>61037 Chamomile Place</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bend</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>97702</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>33-3975534</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DEBORAH BUTCHER</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>550338849</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Deborah</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Butcher</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>06/20/1967</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>147532 Gracies Rd</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Gilchrist</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>97737</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33-3975579</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MARC LEWIS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>548674484</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MARC</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>LEWIS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>11/20/1969</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2711 NW Rainbow Ridge Dr</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Bend</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>97703</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33-3975609</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>JANILEE HAND</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>544316322</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>JANILEE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>HAND</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>02/20/1986</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>16421 Heath Dr</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>La Pine</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>97739</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33-3975636</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MELISSA DALEY</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>544195559</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MELISSA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DALEY</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>08/21/1980</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>15981 Falcon Lane</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>La Pine</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>97739</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33-3975669</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BRENNA CARPENTER</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>543516110</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BRENNA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>CARPENTER</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>09/14/1997</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>900 Northeast Warner Place</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bend</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>97701</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33-3975698</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>JAMES HERMANCE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>110505560</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Hermance</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>09/18/1959</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>463 Seabreeze Walk</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Breezy Point</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33-3975721</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DANIEL SANTIAGO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>109747331</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>06/29/1985</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>298 Hillside Ave</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Breezy Point</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33-3975745</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EILEEN HENNESSEY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>109547421</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Eileen</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hennessey</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>08/27/1958</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>44 Beach 221 Street</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Breezy Point</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33-3975782</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ELLEN MARTIN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>108382196</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ellen</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>01/14/1951</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2 Essex Walk</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Rockaway Point</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33-3975811</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>THOMAS FITZGERALD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>107424004</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Fitzgerald</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>02/27/1951</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>51 West Market Street</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Rockaway Point</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>33-3975859</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PETER BARTOSZEK</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>105627594</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bartoszek</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>06/05/1971</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>43 Linden Avenue</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Pelham</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>10803</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>33-3975900</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>STEPHEN SIRKISOON</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>104740063</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Stephen</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sirkisoon</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>02/06/1958</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2367 Bayswater Ave</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Far Rockaway</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>11691</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>33-3975929</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>KEVIN PYE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>104626620</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pye</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>01/07/1969</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>217-11 Rockaway Point Blvd</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Breezy Point</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>33-3975958</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MARIO EDOUARD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>103661129</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Edouard</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>06/06/1959</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>137 Weir Street</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Hempstead</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>11550</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>33-3975993</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>KENNETH WALLACE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>102600006</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Kenneth</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Wallace</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>02/22/1963</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>23 Queens Walk</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Breezy Point</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>33-3976016</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MICHELE LIND</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>101665484</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Michele</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Lind</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>03/02/1971</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>105 Beach 221st Street</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Breezy Point</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>33-3976046</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DANIEL WALSH</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>100625599</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Walsh</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>08/25/1964</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>56 Ebony Court</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>11229</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>33-3976082</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>KEVIN KEANE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>100621867</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Keane</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>07/18/1966</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>32 Market Street</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Breezy Point</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>33-3976131</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FRANK PELLEGRINO</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>100449458</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Frank</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pellegrino</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>09/11/1952</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>72 Tioga Walk</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Breezy Point</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>33-3976177</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MELINDA WILLIAMS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>546734111</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Melinda</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>07/31/1977</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>19 10th Avenue</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Brunswick</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>21716</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>33-3976219</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MARK SANTOS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>472618260</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>11/27/1981</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>476 Foxridge Drive Southwest</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Leesburg</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>20175</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>33-3976266</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NICKOLOUS WILBANKS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>251355179</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Nickolous</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Wilbanks</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>05/13/1965</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1035 North McKinley Road</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Arlington</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>22205</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>33-3976301</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BRITTANY LUSKER</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>230812383</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Lusker</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>08/25/1998</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>775 Gateway Drive Southeast</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Leesburg</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>20175</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>33-3976350</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TIFFANY SMITH</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>230590042</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tiffany</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>11/04/1984</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>417 Bentley Court</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Hagerstown</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>21740</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>33-3976379</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>LACHANDA MILLS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>088760321</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LaChanda</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Mills</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>12/04/1989</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3048 Covington Street</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Fairfax</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>22031</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>33-3976420</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SHAJAVA MILLER</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>082648238</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Shajava</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>02/26/1980</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2031 Brooks Drive</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Forestville</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>20747</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>33-3976460</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MARY KOZIK</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>035386880</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Kozik</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>08/18/1957</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>915 E Street Northwest</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>washington</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>20004</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>33-3976511</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RAJESH KHANAL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>777042782</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Khanal</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>10/05/1992</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>11602 Fairfax Meadows Circle</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Fairfax</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>22030</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>33-3976559</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DANIEL CHEN</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>615041299</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Chen</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>02/10/1998</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2735 Ontario Road Northwest</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>20009</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>33-3976589</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ANA LUISA NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>612105228</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Ana Luisa</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Nascimento</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>06/02/1976</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>7307 Trescott Ave</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Takoma Park</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>20912</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>33-3976655</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DIZONA COOPER</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>579964065</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Dizona</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cooper</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>05/20/1975</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>236 54th Street SE</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>20019</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>33-3976695</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>EBONY SHAW</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>579193643</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ebony</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Shaw</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>04/10/1986</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>5613 Eads Street Northeast</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20019</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>33-3976738</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LARNETTE HIGHTOWER</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>578983380</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Larnette</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Hightower</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>09/06/1974</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3324 Swann Rd</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Suitland</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>20746</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>33-3976783</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VALENCIA LOWRY</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>578236081</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Lowry</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>08/17/1992</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>5500 East Boniwood Turn</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Clinton</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>20735</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>33-3976837</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KELVIN RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>578219550</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Kelvin</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>08/27/1991</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>3802 14th Street Northwest</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>20011</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>33-3976877</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RENEE BAILEY</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>577138099</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Renee</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Bailey</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10/13/1986</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1112 Penn Street Northeast</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>20002</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>33-3976928</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ANGEL CLARK</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>577130108</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>11/08/1985</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>432 Ava Way Northeast</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>20017</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>33-3976995</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PHOEBE ELIZAGA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>534390805</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Phoebe</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Elizaga</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>11/16/1997</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2735 Ontario Road Northwest</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>20009</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>33-3977038</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VALERIE PRIDDLE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>374627161</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Valerie</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Priddle</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>03/20/1955</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>242 Solomons Church Road</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Quicksburg</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>22847</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>33-3977078</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CHRISTINA SOLIS-SHEPPERSON</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>224897954</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Christina</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Solis-Shepperson</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>10/25/2000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>201 Q Street Northeast</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>20002</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>33-3977122</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MALEEHA MALLIC</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>224592991</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Maleeha</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Mallic</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>09/09/1990</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2869 Myrtlewood Drive</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Dumfries</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>22026</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>33-3977187</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>REGINA MARK</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>224399117</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Regina</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>04/08/1986</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2649 Shadyside Avenue</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Suitland</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>20746</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>33-3977230</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TINA ADELOYE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>218295354</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Tina</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Adeloye</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>05/30/1957</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2308 Brooke Grove Road</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bowie</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>20721</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>33-3977329</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BRIANA DENEAL-FINDLEY</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>213370296</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Briana</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>DeNeal-Findley</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>08/13/1992</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4140 Crab Apple Court</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Suitland</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>20746</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>33-3977373</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LUIS GOMEZ</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>157643610</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>11/11/1961</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1749 Meadow Hill Drive</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Annapolis</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>21409</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>33-3977409</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>NATASHA KHAWAJA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>156902326</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Natasha</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Khawaja</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>08/23/1984</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1020 North Highland Street</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Arlington</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>22066</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>33-3977450</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DEBORAH PERKINS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>132586389</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Deborah</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Perkins</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>11/27/1965</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3133 Queens Chapel Road</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Mount Rainier</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>20712</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>33-3977532</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MARINA VILKOVA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>060908361</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Vilkova</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>03/06/1964</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2912 Brighton 12th</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>11235</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>33-3977588</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MATILDA VILELLA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>066547549</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Matilda</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Vilella</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>04/12/1960</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1700 Hoe Ave</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Bronx</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>10460</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>33-3977640</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CHRISTINE THOMPSON</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>095461666</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Christine</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>06/04/1956</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1560 Grand Concourse</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Bronx</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>10457</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>33-3977693</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JOHN TAVOLACCI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>099646461</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Tavolacci</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>06/05/1964</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>207 Howard St</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>East Williston</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>11596</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>33-3977788</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PAUL SMITH</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>083646918</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>11/20/1967</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>110 E 129th St</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>10035</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>33-3977843</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>JEFFREY SAVOY</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>086443433</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Jeffrey</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Savoy</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>04/28/1963</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>696 Baldwin Ave</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Baldwin</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>11510</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>33-3977888</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>KATHERINE RAMOS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>093021632</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Ramos</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>08/22/1969</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>30 Daniel Low Terrace</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Staten Island</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>33-3977940</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>GABRIEL RAMIREZ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>093526642</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Ramirez</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>12/20/1963</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>36 Wallace Ave</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Mount Vernon</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>10552</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>33-3978025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>PETER PROVET</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>074528037</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Provet</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>06/10/1958</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>145 East 84th St</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>33-3978083</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>HELEN NG</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>080547075</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Helen</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Ng</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>09/21/1960</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>7101 4th Ave</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>11209</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>33-3978137</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TINA MITCHELL</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>064684771</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Tina</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>06/02/1976</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>34A Oldwood Rd</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Port Washington</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>11050</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>33-3978195</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DANIELLE MILLS</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>083621541</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Danielle</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Mills</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>11/10/1978</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1275 Grant Ave</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Bronx</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>33-3978242</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ANDREA MEEKS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>071609024</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Andrea</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Meeks</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>03/04/1966</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>101 West 147th St</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>10039</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>33-3978321</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CAILIN MCGREEVY</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>059825066</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Cailin</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>McGreevy</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>07/09/1970</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>36 Westview Ave</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Tuckahoe</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>10707</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>33-3978380</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>RACHEL MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>523490003</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Rachel</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>10/18/1980</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>3126 Wild Peregrine View</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>80916</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>33-3978437</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>JASON DEABUENO</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>523419124</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Deabueno</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>05/12/1969</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1570 Promontory Bluff View</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>80921</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>33-3978493</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DIANNE REITAN</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>523270561</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Dianne</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Reitan</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>07/28/1972</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>814 Mira Drive</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>80906</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>33-3978551</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MASSINE DAVIS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>523086803</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Massine</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>07/16/1961</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>4974 Castledown Road</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>80917</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>33-3978603</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>THOMAS CANTER</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>522986170</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Canter</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>09/22/1960</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>115 S 18th St</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>80904</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>33-3978672</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DAYTON ROMERO</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>521835817</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Dayton</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Romero</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>08/12/1991</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>3782 Homestead Ridge Heights</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>80917</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>33-3978730</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>JAYME HOLLIGAN</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>521379097</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Jayme</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Holligan</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>08/27/1977</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>5030 Saddleback Heights</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>80923</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>33-3978782</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>VALERIE ANDERS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>521048828</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Valerie</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Anders</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>05/10/1960</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>245 Eclipse Dr</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>80905</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>33-3978828</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>NANCY BZDOK</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>501704542</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Bzdok</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>12/10/1957</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2225 Roundtop Dr</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>80918</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>33-3978878</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SUSAN PAVLICA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>499648406</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Susan</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Pavlica</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>09/14/1956</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2825 Country Club Cir</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>80909</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>33-3978940</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MARIAN JENSEN</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>480722556</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Marian</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Jensen</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>01/13/1958</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2504 Avondale Drive</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>80917</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>33-3978992</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>JODELL FREKING</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>477708441</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Jodell</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Freking</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>11/02/1956</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>229 Bassett Drive</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>80910</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>33-3979057</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ANNETTE MCKENZIE</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>474905430</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Mckenzie</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>04/29/1963</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>523 E Kiowa Street</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>80903</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>33-3979120</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DAVID SHAUGHNESSY</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>468299878</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Shaughnessy</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>05/04/1994</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>8234 Scarborough Dr</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>80920</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>33-3979175</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DOUGLAS DAILEY</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>402788622</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Douglas</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Dailey</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>02/07/1963</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1220 Osgood Road</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>80915</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>33-3979239</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>COLLEEN PEARL</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>374800910</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Colleen</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Pearl</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>08/18/1972</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1930 Tesla Dr</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>80909</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>33-3979291</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>LAWANNA WHITTINGTON</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>360544836</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Lawanna</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Whittington</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>05/19/1967</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1980 Hampton South</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>80906</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>33-3979342</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DOLLY MADISON</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>348428401</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Dolly</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>01/29/1965</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2726 Wren Drive</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>80809</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>33-3979402</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>DEREK WILSON</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>306822982</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Derek</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>10/23/1977</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>6787 Silverwind Cir</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>80923</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>33-3979464</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>JOHN PENBERTHY</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>193502056</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Penberthy</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>06/02/1967</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>3440 Parkmoor Village Drive</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>80917</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>33-3979523</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>EDWARD ZWIRLEIN</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>193441272</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Edward</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Zwirlein</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>10/11/1956</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1407 Newcastle St</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>80907</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>33-3979570</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PAULA HUMBER</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>140405060</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Humber</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>06/09/1958</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>4250 Autumn Heights Dr Unit F</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>80906</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>33-3979631</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>YELENA BELSKAYA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>068800001</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Yelena</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Belskaya</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>05/26/1977</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>6738 108th St</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Forest Hills</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>11375</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>33-3979679</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CHRISTINE SHIBER</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>089462950</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>CHRISTINE</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>SHIBER</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>03/24/1952</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>8762 SAINTS WAY</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>SACRAMENTO</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>95826</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>33-3979727</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>PHILIP KIM</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>037501857</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>PHILIP</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>KIM</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>03/15/1942</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2935 21ST AVENUE</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>OAKLAND</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>94606</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>33-3979790</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>JESSE CHANG</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>586407515</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>JESSE</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>CHANG</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>10/07/1937</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>466 VICTORIA ST</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>94132</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>33-3979876</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>GLENDA THOMAS</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>579464875</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GLENDA</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>THOMAS</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>10/26/1935</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>624 LAKE FRONT DRIVE</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>SACRAMENTO</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>95831</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>33-3979935</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>BARBARA HORIKOSHI-FIREBAUGH</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>576604114</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>BARBARA</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>HORIKOSHI-FIREBAUGH</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>07/06/1951</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>9908 JETMAR WAY</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>ELK GROVE</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>95624</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>33-3979997</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>NORA YAMASHIRO</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>575306289</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>YAMASHIRO</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>02/15/1933</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1357 TOURNEY DRIVE</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>SAN JOSE</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>95131</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>33-3980078</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>DONALD LEE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>572681656</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>DONALD</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>LEE</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>07/29/1950</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>603 PIERCE ST</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>VALLEJO</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>94590</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>33-3980153</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MADELINE ELSEA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>572649165</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>MADELINE</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>ELSEA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>02/25/1948</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>27 FARALLON CIR</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>SACRAMENTO</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>95831</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>33-3980211</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>LINDA CALDWELL</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>571944089</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>LINDA</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>CALDWELL</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>07/28/1952</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>3211 SANTA CRUZ RD</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>WEST SACRAMENTO</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>95691</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>33-3980271</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>FLOYD QUENZER</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>570508494</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>FLOYD</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>QUENZER</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>02/17/1939</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>3945 E KERCKHOFF</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>FRESNO</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>93702</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>33-3980324</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CHARLES CORDES</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>570449598</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>CHARLES</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>CORDES</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>12/05/1935</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1630 VERSAILLES</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>ALAMEDA</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>94501</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>33-3980402</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>JUDITH STONE</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>569640135</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>JUDITH</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>STONE</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>06/22/1945</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>374 BOHEMIAN HWY</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>SEBASTOPOL</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>95472</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>33-3980468</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ANATALIO UBALDE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>569546617</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>ANATALIO</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>UBALDE</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>09/20/1939</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>201 WINDSOR WAY</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>VALLEJO</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>94591</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>33-3980526</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MICHAEL BROWN</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>569541218</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>MICHAEL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>11/16/1939</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>158 SAXONY CT</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>VALLEJO</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>94591</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>33-3980597</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>JEANNE SANFORD</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>569465936</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>JEANNE</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>SANFORD</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>07/09/1934</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>5545 N FRESNO ST APT 201</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>FRESNO</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>93710</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>33-3980667</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MARTIN MURDOCK</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>568582385</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>MARTIN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>MURDOCK</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>04/19/1945</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2329 CREEKWOOD CT</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>95409</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>33-3980731</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>GILBERT VIEIRA</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>568220792</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GILBERT</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>VIEIRA</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>05/27/1926</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>101 ELY BLVD S APT 271</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>PETALUMA</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>94954</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>33-3980796</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>NAOMI SOUTHARD</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>567902853</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>NAOMI</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SOUTHARD</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>10/14/1951</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>4131 FRUITVALE AVE</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>OAKLAND</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>94602</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>33-3980960</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>PAMELA CUMMINGS</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>566903409</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>PAMELA</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>CUMMINGS</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>10/05/1951</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1501 SECRET RAVINE PKWY UNIT 1316</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>ROSEVILLE</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>95661</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>33-3981093</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>BETTY PAGETT</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>566561274</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>BETTY</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>PAGETT</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>11/24/1941</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>159 WILSON ST</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>PETALUMA</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>94952</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>33-3981148</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>PHILIP ANGOVE</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>565602801</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>PHILIP</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>ANGOVE</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>06/01/1943</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2065 ROSE ARBOR DR</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>SACRAMENTO</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>95835</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>33-3981261</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>JANET EVERHART</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>563041473</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>JANET</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>EVERHART</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>10/27/1956</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>125 2ND ST APT 501</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>OAKLAND</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>94607</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>33-3981331</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>JOHN MCCORKELL</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>562622616</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>JOHN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>MCCORKELL</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>02/27/1947</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>8916 WOODMAN WAY</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>SACRAMENTO</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>95826</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>33-3981399</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>GARY GRUNDMAN</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>561922060</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GARY</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>GRUNDMAN</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>06/29/1952</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>622 TAFOYA DR</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>WOODLAND</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>95776</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>33-3981455</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>GARY MCANALLY</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>560848813</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GARY</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>MCANALLY</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>07/22/1952</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>9929 QUAIL HILL DR</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NEWCASTLE</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>95658</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>33-3981517</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SANDRA EXELBY</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>560449568</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SANDRA</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>EXELBY</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>12/24/1936</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1358 OAK VIEW CIRCLE</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>ROHNERT PARK</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>94928</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>33-3981576</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>DOREEN HINSHAW</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>560440525</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>DOREEN</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>HINSHAW</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>12/06/1933</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>5108 LINDA LOU DRIVE</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>CARMICHAEL</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>95608</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>33-3981655</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>CINDY BUNA</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>559962190</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>CINDY</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>BUNA</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>07/05/1954</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>7080 GLORIA DR</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>SACRAMENTO</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>95831</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>33-3981711</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>EVA CHOW</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>559960898</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>EVA</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>CHOW</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>07/25/1937</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>741 BEATIE ST</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>OAKLAND</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>94606</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>33-3981779</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TANA MCDONALD</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>559826128</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>TANA</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>MCDONALD</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>02/28/1951</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>603 PIERCE ST</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>VALLEJO</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>94590</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>33-3981849</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ROBERT CHICOU</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>559806172</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>ROBERT</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>CHICOU</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>04/21/1952</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2499 WARMHEARTH LOOP</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>ROSEVILLE</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>95747</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>33-3981922</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>LIZABETH KLEIN</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>559762605</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>LIZABETH</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>KLEIN</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>03/09/1949</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>818 OXFORD ST</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>BERKELEY</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>94707</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>33-3981988</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>F BURKHART</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>559586782</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>BURKHART</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>11/14/1934</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>750 W ALLUVIAL AVE APT 1030</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>CLOVIS</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>93611</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>33-3982044</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>QUYEN VO</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>616621782</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Quyen</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Vo</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>12/24/1972</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2220 Romey LN</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>94541</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>33-3982110</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SANJESHNI SEN</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>615980369</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sanjeshni</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Sen</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>02/07/1988</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>3117 Ormonde St</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Tracy</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>95377</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>33-3982169</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>JUDY NGUYEN-LU</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>614034001</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>Judy</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cruz Palma</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>06/18/1985</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>7 Alexander Rd</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Monroe</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>10950</v>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Nguyen-Lu</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>11/07/1987</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1027 Manor Road</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>El Sobrante</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>94803</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>33-3982320</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TET TOE PAING</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>610739894</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Tet Toe</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Paing</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>12/01/1990</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>268 Bowling Green Street</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>San Leandro</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>94577</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>33-3982385</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>XIAOLAN CHEN</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>607856698</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Xiaolan</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Chen</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>10/12/1987</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>709 Alice St</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Oakland</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>94607</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>33-3982437</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ELEANOR LAU</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>606527562</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Eleanor</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Lau</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>10/20/1991</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2939 Georgia St</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Oakland</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>94602</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>33-3982498</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>CHRISTINE ARANETA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>564082879</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Christine</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Araneta</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>01/01/1956</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1158 Gardner Blvd</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>San Leandro</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>94577</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>33-3982555</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>LINDA SAECHAO</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>561939174</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Saechao</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>01/02/1987</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2901 Barkley Dr</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>94806</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>33-3982649</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>VAY HOANG</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>545772414</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Vay</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Hoang</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>08/14/1983</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2230 21st Avenue</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Oakland</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>94606</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>33-3982716</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>NGOC LY</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>225297545</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Ngoc</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Ly</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>01/08/1983</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2423 Wilbur St</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Oakland</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>94602</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>33-3982786</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>JEANNE TASENS</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>081484671</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Jeanne</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Tasens</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>05/19/1952</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>4689 Occoquan Overlook</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Woodbridge</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>22192</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>33-3982852</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>DANIEL LARIVEY</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>057749000</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Larivey</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>12/08/1973</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>213 Jolliffe Cir</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Boyce</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>22620</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>33-3982915</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>NFAMBA DIABY</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>883746596</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Nfamba</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Diaby</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>01/22/1990</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>14139 Castle Boulevard</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Silver Spring</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>20904</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>33-3982975</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ERLIS HENRIQUEZ</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>818597646</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Erlis</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Henriquez</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>06/20/1988</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>252 Kirby Street</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Manassas Park</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>20111</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>33-3983042</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ETHAN JEON</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>693120141</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Ethan</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Jeon</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>07/31/1995</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>7411 Farnum St</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Springfield</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>22151</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>33-3983112</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ROBERT BATES</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>638421772</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Bates</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>03/03/1983</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>4532 Hatton Point Road</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>23703</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>33-3983179</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>IAN COCKS</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>595605652</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Cocks</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>04/26/1972</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>13606 Parkside Manor Court</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Chantilly</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>20151</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>33-3983245</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>RODOLFO RETAMOSO</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>577808715</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Rodolfo</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Retamoso</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>07/12/1945</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>204 Whispering Wind Ct</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Vienna</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>22180</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>33-3983304</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ARIF SAID</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>577255144</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Arif</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Said</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>05/04/1967</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>13546 Sierra Dr</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Clifton</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>20124</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>33-3983363</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>WILSON PANG</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>575041682</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Pang</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>09/08/1961</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>3221 Sunnybrook Ln</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Virginia Beach</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>23452</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>33-3983424</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TINA WATT</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>568119427</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Tina</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Watt</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>06/14/1966</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>20640 Sutherlin Pl</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Sterling</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>20165</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>33-3983494</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>RICHARD WIDNER</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>535724801</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Widner</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>12/28/1958</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>24226 Raccoon St</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Courtland</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>23837</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>33-3983569</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>DAVID PIERRON</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>510801577</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Pierron</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>03/25/1975</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>743 Lucke Way</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Linden</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>22642</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>33-3983639</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>LAWRENCE WRIGHT</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>381566788</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Lawrence</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Wright</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>08/18/1962</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>23413 Morning Walk Dr</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Brambleton</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>20148</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>33-3983701</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ROBERT THAYER</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>289683884</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Thayer</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>10/14/1969</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>13686 Wild Flower Lane</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Clifton</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>20121</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>33-3983772</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>HALLE POPSON</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>276983652</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Halle</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Popson</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>11/13/1994</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>8084 Whispering Wind Lane</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Manassas</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>20111</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>33-3983827</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>LEWIS BROWN</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>236254439</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>10/03/1981</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>11969 Gehr Road</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Waynesboro</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>17268</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>33-3983893</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>BRENDAN WILDT</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>236236831</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Brendan</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Wildt</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>07/28/1982</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>3103 North Avenue</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>23222</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>33-3983964</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>TERRENCE COTMAN</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>231884053</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Terrence</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Cotman</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>06/15/1971</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>1520 German School Road</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>23225</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>33-3984029</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>JOHN BRINKLEY</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>231725604</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Brinkley</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>01/13/1949</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>5200 Carol Anne Drive</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Virginia Beach</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>23462</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>33-3984082</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>STARFFORD OWUSU</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>231633777</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Starfford</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Owusu</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>12/05/1965</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>12300 Kings Valley Ct</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Bowie</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>20721</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>33-3984142</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>VINCENT ALLIN</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>231579294</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Allin</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>06/06/1990</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>43415 Madison Renee Terrace</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Ashburn</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>20147</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>33-3984202</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>KEVIN WHEELER</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>231172492</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Wheeler</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>12/04/1969</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>8 Tanner Place</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>23702</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>33-3984265</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>LOGAN ROSENBERG</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>230597887</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Logan</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Rosenberg</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>12/06/1990</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2159 Astoria Cir</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Herndon</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>20170</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>33-3984364</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>DANNY LEWIS</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>230157148</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Danny</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>04/05/1978</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>8293 Field Shire Drive</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Mechanicsville</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>23111</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>33-3984444</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ANDREW SMITH</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>229870581</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>07/05/2000</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>43825 Thornberry Square</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Leesburg</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>20176</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>33-3984495</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>DAVID GUERNSEY</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>229662554</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Guernsey</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>03/13/1948</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>12414 Clifton Hunt Drive</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Clifton</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>20124</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>33-3984548</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>NICHOLAS BERGSTROM</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>229551494</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Nicholas</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Bergstrom</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>07/21/1986</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>44115 Allderwood Terrace</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Ashburn</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>20147</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>33-3984619</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>RENE WINNIK</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>228989209</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Rene</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Winnik</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>03/13/1958</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>12312 Cannon Ball Rd</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Fairfax</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>22030</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>33-3984692</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>WILLIE DIXON</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>228904167</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Willie</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Dixon</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>03/20/1958</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>6211 Prince Way</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Centreville</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>20120</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9898,6 +9898,422 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>33-4000359</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BLUESKY INNOVATIONS LLC</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>432813777</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Basilia</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1992-01-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>1828 James Street</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Irving</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>75061</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>33-4000640</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>STELLARPEAK VENTURES LLC</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>099664210</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>RAFAEL</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>PEREZ-ESPEJO</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1958-10-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1100 GOUGH ST</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>94109</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>33-4000781</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>NEXUSFLOW TECHNOLOGIES LLC</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>643015000</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>ZACHARY</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>DAVIDSON</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1980-09-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>955 PINE STREET</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>94108</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>33-4000836</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>APEXVIBE GLOBAL LLC</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>625247624</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>JOSHUA</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>BONGAWIL</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1988-11-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>236 SAGEBRUSH LANE</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>AMERICAN CANYON</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>94503</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>33-4000904</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>HORIZONWAVE INDUSTRIES LLC</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>620425729</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>ARACELI</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>MARTIN</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1990-01-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>190 HALE ST</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>94134</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>33-4000992</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>REDSTONE STRATEGIES LLC</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>615361434</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>HARMONIE</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1990-03-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>42 BERKELEY WAY</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>94131</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>33-4001063</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>NOVACRAFT HOLDINGS LLC</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>612407257</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>JENNY</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>VALDEZ</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1988-03-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>990 MAGNOLIA AVE</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>MILLBRAE</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>94030</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>33-4001534</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>CRYSTALCOVE ENTERPRISES LLC</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>630045084</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>AVIYANCA</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>PRAKASH</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1993-11-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>711 TORREYA AVENUE</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>SUNNYVALE</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>94086</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
